--- a/DSP_H2_2025/Tháng 9/NewEleven_20250925_20250925_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20250925_20250925_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -161,10 +161,10 @@
     <t>B0DM63J16N-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DH7YGD9Q-Birthday-Tumblers</t>
+    <t>B0DH7X6R1J-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DH7X6R1J-Birthday-Tumblers</t>
+    <t>B0DH7YGD9Q-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH83T7MF-Birthday-Tumblers</t>
@@ -218,10 +218,10 @@
     <t>B0D7HMXCSP-Retirement</t>
   </si>
   <si>
-    <t>B097B9H21P-Moms - Tumblers</t>
+    <t>B0CYPWBV21-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0CYPWBV21-Birthday-Cf glass</t>
+    <t>B097B9H21P-Moms - Tumblers</t>
   </si>
   <si>
     <t>B0CRVTN11L-Moms-Cf glass</t>
@@ -317,10 +317,10 @@
     <t>B0F17F23MZ-Dads-Tumbler</t>
   </si>
   <si>
-    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
+    <t>B09ZYBDMZ1-Retirement-tumblers</t>
   </si>
   <si>
-    <t>B09ZYBDMZ1-Retirement-tumblers</t>
+    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
   </si>
   <si>
     <t>B0DLVS7R7V-Retirement-ornaments</t>
@@ -350,40 +350,37 @@
     <t>B0B9SF2R4R-Moms-Coffee Glass</t>
   </si>
   <si>
-    <t>B0CN92WPN9-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CM5SQT4T-Birthday-Wineglass</t>
+    <t>B0CRDCNJ39-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CKYN27VS-Birthday-Cf glass</t>
   </si>
   <si>
-    <t>B0CRDCNJ39-Birthday-Tumblers</t>
+    <t>B0CXXM1YD1-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CN93CWYD-Birthday-Tumblers</t>
+    <t>B0CT8NQBN5-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>B0DK11YM64-Birthday Ornaments</t>
+  </si>
+  <si>
+    <t>B0978WGWY4-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0CLYRNFBT-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CM5QBW1Z-Birthday-Wineglass</t>
+    <t>B09TT1GGMM-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DJT3P5FK0-Birthday Ornaments</t>
   </si>
   <si>
-    <t>B0DK11YM64-Birthday Ornaments</t>
-  </si>
-  <si>
-    <t>B0DCJQ2SKV-Moms-Cf glass</t>
-  </si>
-  <si>
-    <t>B0978WGWY4-Birthday-Wineglass</t>
-  </si>
-  <si>
-    <t>B0CT8NQBN5-Birthday-Tumblers</t>
+    <t>B0CN92WPN9-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH886R83-Birthday-Tumblers</t>
@@ -392,13 +389,19 @@
     <t>B0CN8ZP46N-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B0CM5QBW1Z-Birthday-Wineglass</t>
+  </si>
+  <si>
+    <t>B0CN93CWYD-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B0CM5T2F1V-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0D5YHG24C-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B09TT1GGMM-Birthday-Tumblers</t>
+    <t>B0CM5SQT4T-Birthday-Wineglass</t>
   </si>
   <si>
     <t>B0CN93LZ5M-Birthday-Tumblers</t>
@@ -407,7 +410,7 @@
     <t>B0DH7X2GCX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+    <t>B0DCJQ2SKV-Moms-Cf glass</t>
   </si>
   <si>
     <t>B088GX79HT-Dads - tumblers</t>
@@ -2842,7 +2845,7 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:ext cx="952500" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="78" name="" descr=""/>
@@ -3382,7 +3385,7 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="96" name="" descr=""/>
@@ -3392,6 +3395,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3698,10 +3731,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AL98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL97"/>
+      <selection activeCell="A1" sqref="A1:AL98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3729,7 +3762,7 @@
     <col min="21" max="21" width="19.995117" bestFit="true" customWidth="true" style="4"/>
     <col min="22" max="22" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="23" max="23" width="4.570313" bestFit="true" customWidth="true" style="4"/>
-    <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="3"/>
+    <col min="24" max="24" width="8.140869" bestFit="true" customWidth="true" style="3"/>
     <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="26" max="26" width="4.570313" bestFit="true" customWidth="true" style="4"/>
     <col min="27" max="27" width="6.998291" bestFit="true" customWidth="true" style="3"/>
@@ -3868,7 +3901,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="D2" s="7">
         <v>91.9</v>
@@ -3877,10 +3910,10 @@
         <v>0.36</v>
       </c>
       <c r="F2" s="7">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="G2" s="6">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="H2" s="8">
         <v>0.8</v>
@@ -3889,7 +3922,7 @@
         <v>0.0009</v>
       </c>
       <c r="J2" s="8">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="K2" s="8">
         <v>0.0002</v>
@@ -3904,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>32573</v>
+        <v>32537</v>
       </c>
       <c r="P2" s="9">
         <v>30</v>
       </c>
       <c r="Q2" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R2" s="9">
         <v>5</v>
@@ -3928,13 +3961,13 @@
         <v>0.39</v>
       </c>
       <c r="W2" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="X2" s="8">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="Y2" s="7">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="9">
         <v>3</v>
@@ -3991,7 +4024,7 @@
         <v>2.27</v>
       </c>
       <c r="F3" s="7">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="G3" s="6">
         <v>3.17</v>
@@ -4003,10 +4036,10 @@
         <v>0.0031</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0094</v>
+        <v>0.016</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0009</v>
+        <v>0.0016</v>
       </c>
       <c r="L3" s="7">
         <v>7.26</v>
@@ -4018,16 +4051,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="P3" s="9">
         <v>10</v>
       </c>
       <c r="Q3" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="R3" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -4042,25 +4075,25 @@
         <v>0.73</v>
       </c>
       <c r="W3" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0088</v>
+        <v>0.0147</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="8">
-        <v>0.0009</v>
+        <v>0.0016</v>
       </c>
       <c r="AB3" s="7">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="AC3" s="7">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="AD3" s="7">
         <v>22.98</v>
@@ -4105,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="6">
         <v>3.07</v>
@@ -4114,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0023</v>
+        <v>0.0022</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0029</v>
+        <v>0.0034</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
@@ -4132,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>6514</v>
+        <v>6502</v>
       </c>
       <c r="P4" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R4" s="9">
         <v>0</v>
@@ -4153,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="W4" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X4" s="8">
-        <v>0.0029</v>
+        <v>0.0032</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="Z4" s="9">
         <v>0</v>
@@ -4216,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F5" s="7">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -4231,7 +4264,7 @@
         <v>0.0046</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0048</v>
+        <v>0.0061</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
@@ -4246,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>3954</v>
+        <v>3948</v>
       </c>
       <c r="P5" s="9">
         <v>18</v>
       </c>
       <c r="Q5" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R5" s="9">
         <v>0</v>
@@ -4270,13 +4303,13 @@
         <v>0.36</v>
       </c>
       <c r="W5" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X5" s="8">
-        <v>0.0046</v>
+        <v>0.0053</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
@@ -4324,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -4333,7 +4366,7 @@
         <v>1.6</v>
       </c>
       <c r="F6" s="7">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -4342,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>0.0072</v>
+        <v>0.0069</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0033</v>
+        <v>0.0051</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
@@ -4360,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>3912</v>
+        <v>3902</v>
       </c>
       <c r="P6" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -4381,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="W6" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X6" s="8">
-        <v>0.002</v>
+        <v>0.0026</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="Z6" s="9">
         <v>0</v>
@@ -4447,7 +4480,7 @@
         <v>1.61</v>
       </c>
       <c r="F7" s="7">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4459,7 +4492,7 @@
         <v>0.0065</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0034</v>
+        <v>0.0039</v>
       </c>
       <c r="K7" s="8">
         <v>0.0003</v>
@@ -4474,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>3869</v>
+        <v>3861</v>
       </c>
       <c r="P7" s="9">
         <v>25</v>
       </c>
       <c r="Q7" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R7" s="9">
         <v>1</v>
@@ -4498,13 +4531,13 @@
         <v>0.25</v>
       </c>
       <c r="W7" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X7" s="8">
-        <v>0.0034</v>
+        <v>0.0039</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="Z7" s="9">
         <v>1</v>
@@ -4561,7 +4594,7 @@
         <v>1.62</v>
       </c>
       <c r="F8" s="7">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4573,7 +4606,7 @@
         <v>0.0039</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0029</v>
+        <v>0.0034</v>
       </c>
       <c r="K8" s="8">
         <v>0.0003</v>
@@ -4588,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>3808</v>
+        <v>3803</v>
       </c>
       <c r="P8" s="9">
         <v>15</v>
       </c>
       <c r="Q8" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
@@ -4612,13 +4645,13 @@
         <v>0.41</v>
       </c>
       <c r="W8" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X8" s="8">
-        <v>0.0029</v>
+        <v>0.0034</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="Z8" s="9">
         <v>1</v>
@@ -4666,7 +4699,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -4675,7 +4708,7 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="7">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4684,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0045</v>
+        <v>0.0039</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0034</v>
+        <v>0.0037</v>
       </c>
       <c r="K9" s="8">
         <v>0</v>
@@ -4702,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>3817</v>
+        <v>3811</v>
       </c>
       <c r="P9" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -4723,16 +4756,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="W9" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X9" s="8">
-        <v>0.0034</v>
+        <v>0.0037</v>
       </c>
       <c r="Y9" s="7">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="Z9" s="9">
         <v>0</v>
@@ -4780,7 +4813,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -4798,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0039</v>
+        <v>0.0036</v>
       </c>
       <c r="J10" s="8">
         <v>0.0029</v>
@@ -4816,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="P10" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="9">
         <v>11</v>
@@ -4837,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="W10" s="9">
         <v>11</v>
@@ -4903,7 +4936,7 @@
         <v>1.64</v>
       </c>
       <c r="F11" s="7">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G11" s="6">
         <v>3.63</v>
@@ -4915,7 +4948,7 @@
         <v>0.0043</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0041</v>
+        <v>0.0043</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
@@ -4930,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="P11" s="9">
         <v>16</v>
       </c>
       <c r="Q11" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R11" s="9">
         <v>0</v>
@@ -4954,13 +4987,13 @@
         <v>0.38</v>
       </c>
       <c r="W11" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X11" s="8">
-        <v>0.0011</v>
+        <v>0.0014</v>
       </c>
       <c r="Y11" s="7">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="Z11" s="9">
         <v>0</v>
@@ -5014,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="F12" s="7">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -5026,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0058</v>
+        <v>0.0062</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0047</v>
+        <v>0.0053</v>
       </c>
       <c r="K12" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -5044,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>3805</v>
+        <v>3557</v>
       </c>
       <c r="P12" s="9">
         <v>22</v>
       </c>
       <c r="Q12" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9">
         <v>0</v>
@@ -5071,7 +5104,7 @@
         <v>18</v>
       </c>
       <c r="X12" s="8">
-        <v>0.0047</v>
+        <v>0.0051</v>
       </c>
       <c r="Y12" s="7">
         <v>0.34</v>
@@ -5083,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="7">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AC12" s="7">
         <v>0</v>
@@ -5122,16 +5155,16 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="F13" s="7">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -5140,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>0.0062</v>
+        <v>0.0055</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0037</v>
+        <v>0.0053</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -5158,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>3560</v>
+        <v>3799</v>
       </c>
       <c r="P13" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R13" s="9">
         <v>0</v>
@@ -5179,16 +5212,16 @@
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="W13" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X13" s="8">
-        <v>0.0037</v>
+        <v>0.0053</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="Z13" s="9">
         <v>0</v>
@@ -5236,7 +5269,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="D14" s="7">
         <v>43.77</v>
@@ -5245,10 +5278,10 @@
         <v>1.62</v>
       </c>
       <c r="F14" s="7">
-        <v>0.74</v>
+        <v>0.45</v>
       </c>
       <c r="G14" s="6">
-        <v>7.41</v>
+        <v>7.42</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
@@ -5257,10 +5290,10 @@
         <v>0.0038</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0022</v>
+        <v>0.0036</v>
       </c>
       <c r="K14" s="8">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="L14" s="7">
         <v>2.95</v>
@@ -5272,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>3651</v>
+        <v>3646</v>
       </c>
       <c r="P14" s="9">
         <v>14</v>
       </c>
       <c r="Q14" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9">
         <v>2</v>
@@ -5296,13 +5329,13 @@
         <v>0.42</v>
       </c>
       <c r="W14" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0019</v>
+        <v>0.003</v>
       </c>
       <c r="Y14" s="7">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="Z14" s="9">
         <v>1</v>
@@ -5311,10 +5344,10 @@
         <v>0.0003</v>
       </c>
       <c r="AB14" s="7">
-        <v>5.91</v>
+        <v>2.95</v>
       </c>
       <c r="AC14" s="7">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" s="7">
         <v>20.79</v>
@@ -5326,7 +5359,7 @@
         <v>20.79</v>
       </c>
       <c r="AG14" s="6">
-        <v>7.41</v>
+        <v>7.42</v>
       </c>
       <c r="AH14" s="6">
         <v>3.52</v>
@@ -5341,7 +5374,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL14" s="7">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="90">
@@ -5359,7 +5392,7 @@
         <v>1.62</v>
       </c>
       <c r="F15" s="7">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -5371,7 +5404,7 @@
         <v>0.0061</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0047</v>
+        <v>0.0058</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -5386,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>3621</v>
+        <v>3617</v>
       </c>
       <c r="P15" s="9">
         <v>22</v>
       </c>
       <c r="Q15" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
@@ -5410,13 +5443,13 @@
         <v>0.27</v>
       </c>
       <c r="W15" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X15" s="8">
-        <v>0.0047</v>
+        <v>0.0053</v>
       </c>
       <c r="Y15" s="7">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="Z15" s="9">
         <v>0</v>
@@ -5473,7 +5506,7 @@
         <v>1.62</v>
       </c>
       <c r="F16" s="7">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -5485,7 +5518,7 @@
         <v>0.0036</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0033</v>
+        <v>0.0042</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -5500,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>3596</v>
+        <v>3592</v>
       </c>
       <c r="P16" s="9">
         <v>13</v>
       </c>
       <c r="Q16" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R16" s="9">
         <v>0</v>
@@ -5524,13 +5557,13 @@
         <v>0.45</v>
       </c>
       <c r="W16" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X16" s="8">
-        <v>0.0033</v>
+        <v>0.0036</v>
       </c>
       <c r="Y16" s="7">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="Z16" s="9">
         <v>0</v>
@@ -5578,7 +5611,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D17" s="7">
         <v>16.98</v>
@@ -5587,7 +5620,7 @@
         <v>1.63</v>
       </c>
       <c r="F17" s="7">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G17" s="6">
         <v>2.92</v>
@@ -5599,13 +5632,13 @@
         <v>0.0034</v>
       </c>
       <c r="J17" s="8">
-        <v>0.005</v>
+        <v>0.0062</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L17" s="7">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="M17" s="6">
         <v>2.92</v>
@@ -5614,16 +5647,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>3576</v>
+        <v>3571</v>
       </c>
       <c r="P17" s="9">
         <v>12</v>
       </c>
       <c r="Q17" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="9">
         <v>1</v>
@@ -5635,28 +5668,28 @@
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="W17" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0042</v>
+        <v>0.005</v>
       </c>
       <c r="Y17" s="7">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="Z17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB17" s="7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC17" s="7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD17" s="7">
         <v>16.98</v>
@@ -5683,7 +5716,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL17" s="7">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="90">
@@ -5692,7 +5725,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="D18" s="7">
         <v>19.98</v>
@@ -5701,7 +5734,7 @@
         <v>1.62</v>
       </c>
       <c r="F18" s="7">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="G18" s="6">
         <v>3.49</v>
@@ -5710,16 +5743,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0031</v>
+        <v>0.0028</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0048</v>
+        <v>0.0057</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L18" s="7">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="M18" s="6">
         <v>3.49</v>
@@ -5728,16 +5761,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>3533</v>
+        <v>3525</v>
       </c>
       <c r="P18" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="9">
         <v>1</v>
@@ -5749,28 +5782,28 @@
         <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="W18" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X18" s="8">
-        <v>0.004</v>
+        <v>0.0048</v>
       </c>
       <c r="Y18" s="7">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="Z18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB18" s="7">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="AC18" s="7">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="AD18" s="7">
         <v>19.98</v>
@@ -5797,7 +5830,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL18" s="7">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="90">
@@ -5815,7 +5848,7 @@
         <v>1.65</v>
       </c>
       <c r="F19" s="7">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -5824,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0033</v>
+        <v>0.0027</v>
       </c>
       <c r="J19" s="8">
-        <v>0.0042</v>
+        <v>0.0048</v>
       </c>
       <c r="K19" s="8">
         <v>0.0003</v>
@@ -5842,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>3355</v>
+        <v>3349</v>
       </c>
       <c r="P19" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R19" s="9">
         <v>1</v>
@@ -5863,16 +5896,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="W19" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X19" s="8">
-        <v>0.0042</v>
+        <v>0.0045</v>
       </c>
       <c r="Y19" s="7">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="Z19" s="9">
         <v>1</v>
@@ -5920,52 +5953,52 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>5.48</v>
+        <v>5.47</v>
       </c>
       <c r="D20" s="7">
         <v>29.96</v>
       </c>
       <c r="E20" s="7">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="F20" s="7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G20" s="6">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="H20" s="8">
         <v>0.5</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0326</v>
+        <v>0.0496</v>
       </c>
       <c r="K20" s="8">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="L20" s="7">
         <v>2.74</v>
       </c>
       <c r="M20" s="6">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>2974</v>
+        <v>2962</v>
       </c>
       <c r="P20" s="9">
         <v>4</v>
       </c>
       <c r="Q20" s="9">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="R20" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" s="9">
         <v>2</v>
@@ -5980,25 +6013,25 @@
         <v>1.37</v>
       </c>
       <c r="W20" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="X20" s="8">
-        <v>0.004</v>
+        <v>0.0108</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="Z20" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="8">
-        <v>0.0013</v>
+        <v>0.0017</v>
       </c>
       <c r="AB20" s="7">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AC20" s="7">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AD20" s="7">
         <v>29.96</v>
@@ -6010,10 +6043,10 @@
         <v>14.98</v>
       </c>
       <c r="AG20" s="6">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AH20" s="6">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AI20" s="9">
         <v>2</v>
@@ -6034,16 +6067,16 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="F21" s="7">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6052,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0082</v>
+        <v>0.0075</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0041</v>
+        <v>0.0068</v>
       </c>
       <c r="K21" s="8">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
@@ -6070,16 +6103,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="P21" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="9">
         <v>0</v>
@@ -6091,28 +6124,28 @@
         <v>0</v>
       </c>
       <c r="V21" s="7">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="W21" s="9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="X21" s="8">
-        <v>0.0041</v>
+        <v>0.0068</v>
       </c>
       <c r="Y21" s="7">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="Z21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="8">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AB21" s="7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AC21" s="7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD21" s="7">
         <v>0</v>
@@ -6148,58 +6181,58 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>16.98</v>
       </c>
       <c r="E22" s="7">
         <v>1.83</v>
       </c>
       <c r="F22" s="7">
-        <v>1.06</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="J22" s="8">
-        <v>0.0017</v>
+        <v>0.0073</v>
       </c>
       <c r="K22" s="8">
-        <v>0.0003</v>
+        <v>0.001</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="M22" s="6">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>2895</v>
+        <v>2877</v>
       </c>
       <c r="P22" s="9">
         <v>12</v>
       </c>
       <c r="Q22" s="9">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R22" s="9">
+        <v>3</v>
+      </c>
+      <c r="S22" s="9">
         <v>1</v>
       </c>
-      <c r="S22" s="9">
-        <v>0</v>
-      </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
         <v>0</v>
@@ -6208,52 +6241,52 @@
         <v>0.44</v>
       </c>
       <c r="W22" s="9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="X22" s="8">
-        <v>0.0014</v>
+        <v>0.0063</v>
       </c>
       <c r="Y22" s="7">
-        <v>1.32</v>
+        <v>0.29</v>
       </c>
       <c r="Z22" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>16.98</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>16.98</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>16.98</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="AI22" s="9">
         <v>1</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AJ22" s="8">
         <v>0.0003</v>
       </c>
-      <c r="AB22" s="7">
-        <v>5.29</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>5.29</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="8">
-        <v>0</v>
-      </c>
       <c r="AK22" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AL22" s="7">
-        <v>0</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="23" spans="1:38" customHeight="1" ht="90">
@@ -6271,7 +6304,7 @@
         <v>0.35</v>
       </c>
       <c r="F23" s="7">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -6283,7 +6316,7 @@
         <v>0.0009</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
       <c r="K23" s="8">
         <v>0.0001</v>
@@ -6304,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R23" s="9">
         <v>2</v>
@@ -6376,7 +6409,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>4.89</v>
+        <v>4.87</v>
       </c>
       <c r="D24" s="7">
         <v>80.62</v>
@@ -6385,10 +6418,10 @@
         <v>0.41</v>
       </c>
       <c r="F24" s="7">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="G24" s="6">
-        <v>16.49</v>
+        <v>16.55</v>
       </c>
       <c r="H24" s="8">
         <v>0.8</v>
@@ -6397,31 +6430,31 @@
         <v>0.0014</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0032</v>
+        <v>0.0055</v>
       </c>
       <c r="K24" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="L24" s="7">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M24" s="6">
-        <v>10.01</v>
+        <v>10.05</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>11938</v>
+        <v>11747</v>
       </c>
       <c r="P24" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="R24" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" s="9">
         <v>5</v>
@@ -6433,16 +6466,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="W24" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="X24" s="8">
-        <v>0.0023</v>
+        <v>0.004</v>
       </c>
       <c r="Y24" s="7">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="Z24" s="9">
         <v>0</v>
@@ -6451,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="7">
-        <v>4.89</v>
+        <v>1.62</v>
       </c>
       <c r="AC24" s="7">
         <v>0</v>
@@ -6466,10 +6499,10 @@
         <v>48.94</v>
       </c>
       <c r="AG24" s="6">
-        <v>13.69</v>
+        <v>13.74</v>
       </c>
       <c r="AH24" s="6">
-        <v>10.01</v>
+        <v>10.05</v>
       </c>
       <c r="AI24" s="9">
         <v>3</v>
@@ -6481,7 +6514,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL24" s="7">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="25" spans="1:38" customHeight="1" ht="90">
@@ -6490,52 +6523,52 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="D25" s="7">
         <v>121.87</v>
       </c>
       <c r="E25" s="7">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F25" s="7">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="G25" s="6">
-        <v>27.45</v>
+        <v>27.7</v>
       </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0013</v>
+        <v>0.0045</v>
       </c>
       <c r="K25" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="L25" s="7">
         <v>0.63</v>
       </c>
       <c r="M25" s="6">
-        <v>11.25</v>
+        <v>11.35</v>
       </c>
       <c r="N25" s="8">
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>12180</v>
+        <v>11799</v>
       </c>
       <c r="P25" s="9">
         <v>21</v>
       </c>
       <c r="Q25" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="R25" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" s="9">
         <v>7</v>
@@ -6550,13 +6583,13 @@
         <v>0.21</v>
       </c>
       <c r="W25" s="9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="X25" s="8">
-        <v>0.0011</v>
+        <v>0.0029</v>
       </c>
       <c r="Y25" s="7">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z25" s="9">
         <v>1</v>
@@ -6565,10 +6598,10 @@
         <v>0.0001</v>
       </c>
       <c r="AB25" s="7">
-        <v>4.44</v>
+        <v>1.1</v>
       </c>
       <c r="AC25" s="7">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="AD25" s="7">
         <v>49.95</v>
@@ -6580,10 +6613,10 @@
         <v>49.95</v>
       </c>
       <c r="AG25" s="6">
-        <v>27.45</v>
+        <v>27.7</v>
       </c>
       <c r="AH25" s="6">
-        <v>11.25</v>
+        <v>11.35</v>
       </c>
       <c r="AI25" s="9">
         <v>3</v>
@@ -6592,10 +6625,10 @@
         <v>0.0006</v>
       </c>
       <c r="AK25" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="AL25" s="7">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="26" spans="1:38" customHeight="1" ht="90">
@@ -6604,7 +6637,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="7">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="D26" s="7">
         <v>15.98</v>
@@ -6613,10 +6646,10 @@
         <v>1.56</v>
       </c>
       <c r="F26" s="7">
-        <v>0.73</v>
+        <v>0.34</v>
       </c>
       <c r="G26" s="6">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="H26" s="8">
         <v>1</v>
@@ -6625,31 +6658,31 @@
         <v>0.0021</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0021</v>
+        <v>0.0046</v>
       </c>
       <c r="K26" s="8">
-        <v>0.0011</v>
+        <v>0.0014</v>
       </c>
       <c r="L26" s="7">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="M26" s="6">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="P26" s="9">
         <v>6</v>
       </c>
       <c r="Q26" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" s="9">
         <v>1</v>
@@ -6664,25 +6697,25 @@
         <v>0.73</v>
       </c>
       <c r="W26" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X26" s="8">
-        <v>0.0014</v>
+        <v>0.0028</v>
       </c>
       <c r="Y26" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0.0011</v>
+      </c>
+      <c r="AB26" s="7">
         <v>1.1</v>
       </c>
-      <c r="Z26" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>0.0007</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>1.47</v>
-      </c>
       <c r="AC26" s="7">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AD26" s="7">
         <v>15.98</v>
@@ -6694,10 +6727,10 @@
         <v>15.98</v>
       </c>
       <c r="AG26" s="6">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="AH26" s="6">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="AI26" s="9">
         <v>1</v>
@@ -6709,7 +6742,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL26" s="7">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="90">
@@ -6718,7 +6751,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="7">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="D27" s="7">
         <v>15.98</v>
@@ -6727,10 +6760,10 @@
         <v>1.57</v>
       </c>
       <c r="F27" s="7">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="G27" s="6">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="H27" s="8">
         <v>1</v>
@@ -6739,28 +6772,28 @@
         <v>0.0033</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0055</v>
+        <v>0.0109</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
       </c>
       <c r="L27" s="7">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="M27" s="6">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="N27" s="8">
         <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="P27" s="9">
         <v>9</v>
       </c>
       <c r="Q27" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -6778,13 +6811,13 @@
         <v>0.48</v>
       </c>
       <c r="W27" s="9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X27" s="8">
-        <v>0.0022</v>
+        <v>0.0077</v>
       </c>
       <c r="Y27" s="7">
-        <v>0.72</v>
+        <v>0.21</v>
       </c>
       <c r="Z27" s="9">
         <v>0</v>
@@ -6808,10 +6841,10 @@
         <v>15.98</v>
       </c>
       <c r="AG27" s="6">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AH27" s="6">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AI27" s="9">
         <v>1</v>
@@ -6823,7 +6856,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL27" s="7">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="28" spans="1:38" customHeight="1" ht="90">
@@ -6838,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="F28" s="7">
         <v>0.83</v>
@@ -6850,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0094</v>
+        <v>0.0083</v>
       </c>
       <c r="J28" s="8">
         <v>0.0026</v>
@@ -6868,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="P28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="9">
         <v>5</v>
@@ -6889,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="7">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="W28" s="9">
         <v>5</v>
@@ -6955,7 +6988,7 @@
         <v>2.02</v>
       </c>
       <c r="F29" s="7">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
@@ -6967,7 +7000,7 @@
         <v>0.0121</v>
       </c>
       <c r="J29" s="8">
-        <v>0.005</v>
+        <v>0.0056</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
@@ -6982,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="P29" s="9">
         <v>24</v>
       </c>
       <c r="Q29" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
@@ -7006,13 +7039,13 @@
         <v>0.17</v>
       </c>
       <c r="W29" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X29" s="8">
-        <v>0.005</v>
+        <v>0.0056</v>
       </c>
       <c r="Y29" s="7">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="Z29" s="9">
         <v>0</v>
@@ -7066,10 +7099,10 @@
         <v>22.97</v>
       </c>
       <c r="E30" s="7">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F30" s="7">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="G30" s="6">
         <v>5.79</v>
@@ -7081,10 +7114,10 @@
         <v>0.0024</v>
       </c>
       <c r="J30" s="8">
-        <v>0.0072</v>
+        <v>0.0206</v>
       </c>
       <c r="K30" s="8">
-        <v>0.0014</v>
+        <v>0.0029</v>
       </c>
       <c r="L30" s="7">
         <v>1.98</v>
@@ -7096,16 +7129,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="P30" s="9">
         <v>5</v>
       </c>
       <c r="Q30" s="9">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="R30" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S30" s="9">
         <v>2</v>
@@ -7120,25 +7153,25 @@
         <v>0.79</v>
       </c>
       <c r="W30" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="X30" s="8">
-        <v>0.0053</v>
+        <v>0.0168</v>
       </c>
       <c r="Y30" s="7">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="Z30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA30" s="8">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
       <c r="AB30" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="AC30" s="7">
         <v>1.32</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>3.97</v>
       </c>
       <c r="AD30" s="7">
         <v>12.98</v>
@@ -7174,112 +7207,112 @@
         <v>67</v>
       </c>
       <c r="C31" s="7">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="D31" s="7">
-        <v>58.94</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>0.88</v>
+        <v>2.13</v>
       </c>
       <c r="F31" s="7">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="G31" s="6">
-        <v>15.43</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>0.0021</v>
+        <v>0.0062</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0021</v>
+        <v>0.0084</v>
       </c>
       <c r="K31" s="8">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="L31" s="7">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="M31" s="6">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8">
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>4330</v>
+        <v>1782</v>
       </c>
       <c r="P31" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R31" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S31" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T31" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U31" s="9">
         <v>0</v>
       </c>
       <c r="V31" s="7">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="W31" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X31" s="8">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="7">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="7">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="7">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="7">
-        <v>52.95</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="7">
-        <v>58.94</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="7">
-        <v>52.95</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="6">
-        <v>15.43</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="6">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="8">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="8">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="7">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="90">
@@ -7291,109 +7324,109 @@
         <v>3.8</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>58.94</v>
       </c>
       <c r="E32" s="7">
-        <v>2.13</v>
+        <v>0.89</v>
       </c>
       <c r="F32" s="7">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>15.51</v>
       </c>
       <c r="H32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="8">
-        <v>0.0062</v>
+        <v>0.0021</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0084</v>
+        <v>0.0056</v>
       </c>
       <c r="K32" s="8">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="L32" s="7">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="M32" s="6">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="N32" s="8">
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>1782</v>
+        <v>4275</v>
       </c>
       <c r="P32" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R32" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S32" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T32" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U32" s="9">
         <v>0</v>
       </c>
       <c r="V32" s="7">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="W32" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X32" s="8">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="Y32" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Z32" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA32" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="AB32" s="7">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AC32" s="7">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AD32" s="7">
-        <v>0</v>
+        <v>52.95</v>
       </c>
       <c r="AE32" s="7">
-        <v>0</v>
+        <v>58.94</v>
       </c>
       <c r="AF32" s="7">
-        <v>0</v>
+        <v>52.95</v>
       </c>
       <c r="AG32" s="6">
-        <v>0</v>
+        <v>15.51</v>
       </c>
       <c r="AH32" s="6">
-        <v>0</v>
+        <v>13.93</v>
       </c>
       <c r="AI32" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ32" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AK32" s="8">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AL32" s="7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="90">
@@ -7402,52 +7435,52 @@
         <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="D33" s="7">
         <v>54.94</v>
       </c>
       <c r="E33" s="7">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F33" s="7">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G33" s="6">
-        <v>14.57</v>
+        <v>14.65</v>
       </c>
       <c r="H33" s="8">
         <v>0.6667</v>
       </c>
       <c r="I33" s="8">
-        <v>0.0025</v>
+        <v>0.0023</v>
       </c>
       <c r="J33" s="8">
-        <v>0.0037</v>
+        <v>0.0057</v>
       </c>
       <c r="K33" s="8">
-        <v>0.0004</v>
+        <v>0.0006</v>
       </c>
       <c r="L33" s="7">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M33" s="6">
-        <v>8.48</v>
+        <v>8.52</v>
       </c>
       <c r="N33" s="8">
         <v>0</v>
       </c>
       <c r="O33" s="9">
-        <v>4845</v>
+        <v>4745</v>
       </c>
       <c r="P33" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33" s="9">
         <v>3</v>
@@ -7459,28 +7492,28 @@
         <v>0</v>
       </c>
       <c r="V33" s="7">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="W33" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X33" s="8">
-        <v>0.0023</v>
+        <v>0.0034</v>
       </c>
       <c r="Y33" s="7">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA33" s="8">
-        <v>0.0004</v>
+        <v>0.0006</v>
       </c>
       <c r="AB33" s="7">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="AC33" s="7">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="AD33" s="7">
         <v>31.96</v>
@@ -7492,10 +7525,10 @@
         <v>15.98</v>
       </c>
       <c r="AG33" s="6">
-        <v>10.33</v>
+        <v>10.39</v>
       </c>
       <c r="AH33" s="6">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="AI33" s="9">
         <v>2</v>
@@ -7507,7 +7540,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL33" s="7">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="34" spans="1:38" customHeight="1" ht="90">
@@ -7525,7 +7558,7 @@
         <v>2.03</v>
       </c>
       <c r="F34" s="7">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -7537,7 +7570,7 @@
         <v>0.0049</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0088</v>
+        <v>0.0093</v>
       </c>
       <c r="K34" s="8">
         <v>0</v>
@@ -7558,7 +7591,7 @@
         <v>9</v>
       </c>
       <c r="Q34" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R34" s="9">
         <v>0</v>
@@ -7576,13 +7609,13 @@
         <v>0.41</v>
       </c>
       <c r="W34" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X34" s="8">
-        <v>0.0088</v>
+        <v>0.0093</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z34" s="9">
         <v>0</v>
@@ -7867,7 +7900,7 @@
         <v>2.11</v>
       </c>
       <c r="F37" s="7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -7879,7 +7912,7 @@
         <v>0.0059</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0077</v>
+        <v>0.0089</v>
       </c>
       <c r="K37" s="8">
         <v>0</v>
@@ -7900,7 +7933,7 @@
         <v>10</v>
       </c>
       <c r="Q37" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R37" s="9">
         <v>0</v>
@@ -7972,52 +8005,52 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="D38" s="7">
         <v>26.97</v>
       </c>
       <c r="E38" s="7">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F38" s="7">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G38" s="6">
-        <v>7.68</v>
+        <v>7.73</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
       </c>
       <c r="I38" s="8">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="J38" s="8">
-        <v>0.0064</v>
+        <v>0.0099</v>
       </c>
       <c r="K38" s="8">
-        <v>0.0009</v>
+        <v>0.0019</v>
       </c>
       <c r="L38" s="7">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="M38" s="6">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>4214</v>
+        <v>4151</v>
       </c>
       <c r="P38" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="R38" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S38" s="9">
         <v>2</v>
@@ -8029,28 +8062,28 @@
         <v>0</v>
       </c>
       <c r="V38" s="7">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="W38" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X38" s="8">
-        <v>0.0052</v>
+        <v>0.0079</v>
       </c>
       <c r="Y38" s="7">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="Z38" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA38" s="8">
-        <v>0.0002</v>
+        <v>0.001</v>
       </c>
       <c r="AB38" s="7">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="AC38" s="7">
-        <v>3.51</v>
+        <v>0.87</v>
       </c>
       <c r="AD38" s="7">
         <v>9.99</v>
@@ -8062,10 +8095,10 @@
         <v>9.99</v>
       </c>
       <c r="AG38" s="6">
-        <v>7.68</v>
+        <v>7.73</v>
       </c>
       <c r="AH38" s="6">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AI38" s="9">
         <v>1</v>
@@ -8077,7 +8110,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL38" s="7">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="90">
@@ -8095,7 +8128,7 @@
         <v>2.33</v>
       </c>
       <c r="F39" s="7">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -8107,10 +8140,10 @@
         <v>0.0034</v>
       </c>
       <c r="J39" s="8">
-        <v>0.0054</v>
+        <v>0.0115</v>
       </c>
       <c r="K39" s="8">
-        <v>0.0007</v>
+        <v>0.0013</v>
       </c>
       <c r="L39" s="7">
         <v>0</v>
@@ -8122,16 +8155,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="9">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="P39" s="9">
         <v>5</v>
       </c>
       <c r="Q39" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" s="9">
         <v>0</v>
@@ -8146,25 +8179,25 @@
         <v>0.69</v>
       </c>
       <c r="W39" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="X39" s="8">
-        <v>0.0054</v>
+        <v>0.0108</v>
       </c>
       <c r="Y39" s="7">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="Z39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="8">
-        <v>0.0007</v>
+        <v>0.0013</v>
       </c>
       <c r="AB39" s="7">
-        <v>3.46</v>
+        <v>1.73</v>
       </c>
       <c r="AC39" s="7">
-        <v>3.46</v>
+        <v>1.73</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8209,7 +8242,7 @@
         <v>2.41</v>
       </c>
       <c r="F40" s="7">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="G40" s="6">
         <v>6.64</v>
@@ -8221,10 +8254,10 @@
         <v>0.0077</v>
       </c>
       <c r="J40" s="8">
-        <v>0.0077</v>
+        <v>0.0181</v>
       </c>
       <c r="K40" s="8">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
       <c r="L40" s="7">
         <v>3.46</v>
@@ -8236,16 +8269,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="P40" s="9">
         <v>11</v>
       </c>
       <c r="Q40" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R40" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40" s="9">
         <v>1</v>
@@ -8260,25 +8293,25 @@
         <v>0.31</v>
       </c>
       <c r="W40" s="9">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="X40" s="8">
-        <v>0.0063</v>
+        <v>0.016</v>
       </c>
       <c r="Y40" s="7">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="Z40" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA40" s="8">
-        <v>0.0014</v>
+        <v>0.0021</v>
       </c>
       <c r="AB40" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AC40" s="7">
         <v>1.15</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>1.73</v>
       </c>
       <c r="AD40" s="7">
         <v>22.98</v>
@@ -8428,7 +8461,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="7">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -8437,7 +8470,7 @@
         <v>2.33</v>
       </c>
       <c r="F42" s="7">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
@@ -8449,10 +8482,10 @@
         <v>0.0048</v>
       </c>
       <c r="J42" s="8">
-        <v>0.0061</v>
+        <v>0.0143</v>
       </c>
       <c r="K42" s="8">
-        <v>0.0007</v>
+        <v>0.0014</v>
       </c>
       <c r="L42" s="7">
         <v>0</v>
@@ -8464,16 +8497,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="P42" s="9">
         <v>7</v>
       </c>
       <c r="Q42" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="9">
         <v>0</v>
@@ -8488,25 +8521,25 @@
         <v>0.49</v>
       </c>
       <c r="W42" s="9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X42" s="8">
-        <v>0.0041</v>
+        <v>0.0123</v>
       </c>
       <c r="Y42" s="7">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="Z42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="8">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AB42" s="7">
-        <v>3.42</v>
+        <v>1.7</v>
       </c>
       <c r="AC42" s="7">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="AD42" s="7">
         <v>0</v>
@@ -8542,7 +8575,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="7">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="D43" s="7">
         <v>52.94</v>
@@ -8551,10 +8584,10 @@
         <v>2.41</v>
       </c>
       <c r="F43" s="7">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="G43" s="6">
-        <v>15.48</v>
+        <v>15.52</v>
       </c>
       <c r="H43" s="8">
         <v>1</v>
@@ -8563,7 +8596,7 @@
         <v>0.0028</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0078</v>
+        <v>0.0177</v>
       </c>
       <c r="K43" s="8">
         <v>0.0007</v>
@@ -8572,19 +8605,19 @@
         <v>1.14</v>
       </c>
       <c r="M43" s="6">
-        <v>15.48</v>
+        <v>15.52</v>
       </c>
       <c r="N43" s="8">
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="P43" s="9">
         <v>4</v>
       </c>
       <c r="Q43" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="R43" s="9">
         <v>1</v>
@@ -8599,16 +8632,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="7">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="W43" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="X43" s="8">
-        <v>0.0078</v>
+        <v>0.0177</v>
       </c>
       <c r="Y43" s="7">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="Z43" s="9">
         <v>1</v>
@@ -8617,10 +8650,10 @@
         <v>0.0007</v>
       </c>
       <c r="AB43" s="7">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="AC43" s="7">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="AD43" s="7">
         <v>52.94</v>
@@ -8632,10 +8665,10 @@
         <v>52.94</v>
       </c>
       <c r="AG43" s="6">
-        <v>15.48</v>
+        <v>15.52</v>
       </c>
       <c r="AH43" s="6">
-        <v>15.48</v>
+        <v>15.52</v>
       </c>
       <c r="AI43" s="9">
         <v>3</v>
@@ -8656,16 +8689,16 @@
         <v>80</v>
       </c>
       <c r="C44" s="7">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
       </c>
       <c r="E44" s="7">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="F44" s="7">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -8674,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="J44" s="8">
-        <v>0.0076</v>
+        <v>0.0132</v>
       </c>
       <c r="K44" s="8">
         <v>0.0021</v>
@@ -8692,13 +8725,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="P44" s="9">
         <v>7</v>
       </c>
       <c r="Q44" s="9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R44" s="9">
         <v>3</v>
@@ -8713,16 +8746,16 @@
         <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="W44" s="9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X44" s="8">
-        <v>0.0076</v>
+        <v>0.0132</v>
       </c>
       <c r="Y44" s="7">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="Z44" s="9">
         <v>3</v>
@@ -8731,10 +8764,10 @@
         <v>0.0021</v>
       </c>
       <c r="AB44" s="7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC44" s="7">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD44" s="7">
         <v>0</v>
@@ -8770,52 +8803,52 @@
         <v>81</v>
       </c>
       <c r="C45" s="7">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="D45" s="7">
         <v>34.96</v>
       </c>
       <c r="E45" s="7">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="F45" s="7">
-        <v>0.81</v>
+        <v>0.27</v>
       </c>
       <c r="G45" s="6">
-        <v>10.82</v>
+        <v>10.86</v>
       </c>
       <c r="H45" s="8">
         <v>1</v>
       </c>
       <c r="I45" s="8">
-        <v>0.0058</v>
+        <v>0.0051</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0029</v>
+        <v>0.0087</v>
       </c>
       <c r="K45" s="8">
-        <v>0.0007</v>
+        <v>0.0022</v>
       </c>
       <c r="L45" s="7">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M45" s="6">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="P45" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S45" s="9">
         <v>2</v>
@@ -8827,28 +8860,28 @@
         <v>0</v>
       </c>
       <c r="V45" s="7">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="W45" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X45" s="8">
-        <v>0.0029</v>
+        <v>0.0073</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.81</v>
+        <v>0.32</v>
       </c>
       <c r="Z45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA45" s="8">
-        <v>0.0007</v>
+        <v>0.0015</v>
       </c>
       <c r="AB45" s="7">
-        <v>3.23</v>
+        <v>1.07</v>
       </c>
       <c r="AC45" s="7">
-        <v>3.23</v>
+        <v>1.61</v>
       </c>
       <c r="AD45" s="7">
         <v>19.98</v>
@@ -8860,10 +8893,10 @@
         <v>19.98</v>
       </c>
       <c r="AG45" s="6">
-        <v>10.82</v>
+        <v>10.86</v>
       </c>
       <c r="AH45" s="6">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="AI45" s="9">
         <v>1</v>
@@ -8875,7 +8908,7 @@
         <v>0.0007</v>
       </c>
       <c r="AL45" s="7">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="90">
@@ -8884,7 +8917,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="7">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="D46" s="7">
         <v>34.96</v>
@@ -8893,10 +8926,10 @@
         <v>2.31</v>
       </c>
       <c r="F46" s="7">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="G46" s="6">
-        <v>11.24</v>
+        <v>11.28</v>
       </c>
       <c r="H46" s="8">
         <v>1</v>
@@ -8905,31 +8938,31 @@
         <v>0.003</v>
       </c>
       <c r="J46" s="8">
-        <v>0.0045</v>
+        <v>0.0127</v>
       </c>
       <c r="K46" s="8">
-        <v>0.0015</v>
+        <v>0.0037</v>
       </c>
       <c r="L46" s="7">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M46" s="6">
-        <v>11.24</v>
+        <v>11.28</v>
       </c>
       <c r="N46" s="8">
         <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="P46" s="9">
         <v>4</v>
       </c>
       <c r="Q46" s="9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R46" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S46" s="9">
         <v>2</v>
@@ -8944,25 +8977,25 @@
         <v>0.78</v>
       </c>
       <c r="W46" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X46" s="8">
-        <v>0.003</v>
+        <v>0.0104</v>
       </c>
       <c r="Y46" s="7">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="Z46" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="8">
-        <v>0.0015</v>
+        <v>0.0037</v>
       </c>
       <c r="AB46" s="7">
-        <v>1.56</v>
+        <v>0.62</v>
       </c>
       <c r="AC46" s="7">
-        <v>1.56</v>
+        <v>0.62</v>
       </c>
       <c r="AD46" s="7">
         <v>34.96</v>
@@ -8974,10 +9007,10 @@
         <v>34.96</v>
       </c>
       <c r="AG46" s="6">
-        <v>11.24</v>
+        <v>11.28</v>
       </c>
       <c r="AH46" s="6">
-        <v>11.24</v>
+        <v>11.28</v>
       </c>
       <c r="AI46" s="9">
         <v>2</v>
@@ -8989,7 +9022,7 @@
         <v>0.0015</v>
       </c>
       <c r="AL46" s="7">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="90">
@@ -8998,7 +9031,7 @@
         <v>83</v>
       </c>
       <c r="C47" s="7">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
@@ -9007,7 +9040,7 @@
         <v>0.59</v>
       </c>
       <c r="F47" s="7">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -9019,7 +9052,7 @@
         <v>0.0053</v>
       </c>
       <c r="J47" s="8">
-        <v>0.0009</v>
+        <v>0.0027</v>
       </c>
       <c r="K47" s="8">
         <v>0</v>
@@ -9034,13 +9067,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="9">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="P47" s="9">
         <v>12</v>
       </c>
       <c r="Q47" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R47" s="9">
         <v>0</v>
@@ -9058,13 +9091,13 @@
         <v>0.11</v>
       </c>
       <c r="W47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="8">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Y47" s="7">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Z47" s="9">
         <v>0</v>
@@ -9118,10 +9151,10 @@
         <v>5.99</v>
       </c>
       <c r="E48" s="7">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="F48" s="7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G48" s="6">
         <v>15.36</v>
@@ -9130,10 +9163,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="8">
-        <v>0.0198</v>
+        <v>0.0171</v>
       </c>
       <c r="J48" s="8">
-        <v>0.0198</v>
+        <v>0.0286</v>
       </c>
       <c r="K48" s="8">
         <v>0</v>
@@ -9148,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P48" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R48" s="9">
         <v>0</v>
@@ -9172,13 +9205,13 @@
         <v>0.06</v>
       </c>
       <c r="W48" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X48" s="8">
-        <v>0.0113</v>
+        <v>0.02</v>
       </c>
       <c r="Y48" s="7">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="Z48" s="9">
         <v>0</v>
@@ -9211,10 +9244,10 @@
         <v>1</v>
       </c>
       <c r="AJ48" s="8">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="AK48" s="8">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="AL48" s="7">
         <v>0.39</v>
@@ -9232,10 +9265,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="F49" s="7">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
@@ -9244,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>0.0091</v>
+        <v>0.0093</v>
       </c>
       <c r="J49" s="8">
-        <v>0.0061</v>
+        <v>0.0279</v>
       </c>
       <c r="K49" s="8">
         <v>0</v>
@@ -9262,13 +9295,13 @@
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P49" s="9">
         <v>3</v>
       </c>
       <c r="Q49" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R49" s="9">
         <v>0</v>
@@ -9286,13 +9319,13 @@
         <v>0.1</v>
       </c>
       <c r="W49" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X49" s="8">
-        <v>0.0061</v>
+        <v>0.0186</v>
       </c>
       <c r="Y49" s="7">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Z49" s="9">
         <v>0</v>
@@ -9349,7 +9382,7 @@
         <v>0.8</v>
       </c>
       <c r="F50" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -9361,7 +9394,7 @@
         <v>0.016</v>
       </c>
       <c r="J50" s="8">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K50" s="8">
         <v>0</v>
@@ -9382,7 +9415,7 @@
         <v>5</v>
       </c>
       <c r="Q50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="9">
         <v>0</v>
@@ -9400,13 +9433,13 @@
         <v>0.05</v>
       </c>
       <c r="W50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="8">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="Y50" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z50" s="9">
         <v>0</v>
@@ -9460,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="7">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
@@ -9472,13 +9505,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>0.0032</v>
+        <v>0.0033</v>
       </c>
       <c r="J51" s="8">
         <v>0</v>
       </c>
       <c r="K51" s="8">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="L51" s="7">
         <v>0</v>
@@ -9490,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="9">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P51" s="9">
         <v>1</v>
@@ -9499,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="9">
         <v>0</v>
@@ -9523,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="Z51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" s="8">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AB51" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AC51" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD51" s="7">
         <v>0</v>
@@ -9574,7 +9607,7 @@
         <v>37.96</v>
       </c>
       <c r="E52" s="7">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="F52" s="7">
         <v>0.1</v>
@@ -9586,10 +9619,10 @@
         <v>1</v>
       </c>
       <c r="I52" s="8">
-        <v>0.04</v>
+        <v>0.0408</v>
       </c>
       <c r="J52" s="8">
-        <v>0.0133</v>
+        <v>0.0136</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -9604,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="9">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P52" s="9">
         <v>6</v>
@@ -9667,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="8">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
       <c r="AK52" s="8">
         <v>0</v>
@@ -9688,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F53" s="7">
         <v>0.05</v>
@@ -9700,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="J53" s="8">
-        <v>0.0245</v>
+        <v>0.0248</v>
       </c>
       <c r="K53" s="8">
         <v>0</v>
@@ -9718,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P53" s="9">
         <v>2</v>
@@ -9745,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="X53" s="8">
-        <v>0.0061</v>
+        <v>0.0062</v>
       </c>
       <c r="Y53" s="7">
         <v>0.21</v>
@@ -9814,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>0.0526</v>
+        <v>0.0464</v>
       </c>
       <c r="J54" s="8">
         <v>0</v>
@@ -9832,10 +9865,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P54" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q54" s="9">
         <v>0</v>
@@ -9853,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W54" s="9">
         <v>0</v>
@@ -9919,7 +9952,7 @@
         <v>3.28</v>
       </c>
       <c r="F55" s="7">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -9931,7 +9964,7 @@
         <v>0.1034</v>
       </c>
       <c r="J55" s="8">
-        <v>0.0172</v>
+        <v>0.0345</v>
       </c>
       <c r="K55" s="8">
         <v>0</v>
@@ -9952,7 +9985,7 @@
         <v>6</v>
       </c>
       <c r="Q55" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -9970,13 +10003,13 @@
         <v>0.03</v>
       </c>
       <c r="W55" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" s="8">
-        <v>0.0172</v>
+        <v>0.0345</v>
       </c>
       <c r="Y55" s="7">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="Z55" s="9">
         <v>0</v>
@@ -10030,10 +10063,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F56" s="7">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -10042,10 +10075,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <v>0.0192</v>
+        <v>0.0194</v>
       </c>
       <c r="J56" s="8">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="K56" s="8">
         <v>0</v>
@@ -10060,13 +10093,13 @@
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P56" s="9">
         <v>3</v>
       </c>
       <c r="Q56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="9">
         <v>0</v>
@@ -10144,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -10156,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="8">
-        <v>0.0296</v>
+        <v>0.0299</v>
       </c>
       <c r="J57" s="8">
         <v>0</v>
@@ -10174,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P57" s="9">
         <v>4</v>
@@ -10372,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
@@ -10384,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <v>0.0174</v>
+        <v>0.0176</v>
       </c>
       <c r="J59" s="8">
         <v>0</v>
@@ -10402,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P59" s="9">
         <v>3</v>
@@ -10486,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="7">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -10516,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P60" s="9">
         <v>1</v>
@@ -10714,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -10726,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="8">
-        <v>0.125</v>
+        <v>0.1064</v>
       </c>
       <c r="J62" s="8">
         <v>0</v>
@@ -10744,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P62" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="9">
         <v>0</v>
@@ -10765,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W62" s="9">
         <v>0</v>
@@ -10936,13 +10969,13 @@
         <v>100</v>
       </c>
       <c r="C64" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D64" s="7">
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -10954,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <v>0.0795</v>
+        <v>0</v>
       </c>
       <c r="J64" s="8">
         <v>0</v>
@@ -10972,10 +11005,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P64" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="9">
         <v>0</v>
@@ -10993,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="W64" s="9">
         <v>0</v>
@@ -11056,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="F65" s="7">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -11068,10 +11101,10 @@
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <v>0</v>
+        <v>0.0814</v>
       </c>
       <c r="J65" s="8">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="K65" s="8">
         <v>0</v>
@@ -11086,13 +11119,13 @@
         <v>0</v>
       </c>
       <c r="O65" s="9">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="P65" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q65" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="9">
         <v>0</v>
@@ -11107,16 +11140,16 @@
         <v>0</v>
       </c>
       <c r="V65" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="W65" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="8">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="Y65" s="7">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z65" s="9">
         <v>0</v>
@@ -11629,7 +11662,7 @@
         <v>1.73</v>
       </c>
       <c r="F70" s="7">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G70" s="6">
         <v>0</v>
@@ -11641,7 +11674,7 @@
         <v>0.1346</v>
       </c>
       <c r="J70" s="8">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
@@ -11662,7 +11695,7 @@
         <v>7</v>
       </c>
       <c r="Q70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="9">
         <v>0</v>
@@ -11680,13 +11713,13 @@
         <v>0.01</v>
       </c>
       <c r="W70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="8">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="Y70" s="7">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Z70" s="9">
         <v>0</v>
@@ -11857,7 +11890,7 @@
         <v>1.52</v>
       </c>
       <c r="F72" s="7">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -11869,7 +11902,7 @@
         <v>0.1304</v>
       </c>
       <c r="J72" s="8">
-        <v>0</v>
+        <v>0.0217</v>
       </c>
       <c r="K72" s="8">
         <v>0</v>
@@ -11890,7 +11923,7 @@
         <v>6</v>
       </c>
       <c r="Q72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="9">
         <v>0</v>
@@ -11908,13 +11941,13 @@
         <v>0.01</v>
       </c>
       <c r="W72" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="8">
-        <v>0</v>
+        <v>0.0217</v>
       </c>
       <c r="Y72" s="7">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="Z72" s="9">
         <v>0</v>
@@ -12082,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="F74" s="7">
         <v>0.02</v>
@@ -12094,10 +12127,10 @@
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <v>0.1429</v>
+        <v>0.1176</v>
       </c>
       <c r="J74" s="8">
-        <v>0.0857</v>
+        <v>0.1176</v>
       </c>
       <c r="K74" s="8">
         <v>0</v>
@@ -12112,13 +12145,13 @@
         <v>0</v>
       </c>
       <c r="O74" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P74" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q74" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R74" s="9">
         <v>0</v>
@@ -12133,13 +12166,13 @@
         <v>0</v>
       </c>
       <c r="V74" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="W74" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X74" s="8">
-        <v>0.0857</v>
+        <v>0.1176</v>
       </c>
       <c r="Y74" s="7">
         <v>0.02</v>
@@ -12649,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="E79" s="7">
         <v>0</v>
@@ -12688,16 +12721,16 @@
         <v>0</v>
       </c>
       <c r="Q79" s="9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R79" s="9">
         <v>0</v>
       </c>
       <c r="S79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="9">
         <v>0</v>
@@ -12706,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X79" s="8">
         <v>0</v>
@@ -12727,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="AD79" s="7">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="AE79" s="7">
         <v>0</v>
@@ -12742,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AI79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ79" s="8">
         <v>0</v>
@@ -14698,112 +14731,226 @@
         <v>133</v>
       </c>
       <c r="C97" s="7">
-        <v>228.85</v>
+        <v>0</v>
       </c>
       <c r="D97" s="7">
-        <v>855.59</v>
+        <v>0</v>
       </c>
       <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8">
+        <v>0</v>
+      </c>
+      <c r="K97" s="8">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0</v>
+      </c>
+      <c r="N97" s="8">
+        <v>0</v>
+      </c>
+      <c r="O97" s="9">
+        <v>0</v>
+      </c>
+      <c r="P97" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>0</v>
+      </c>
+      <c r="R97" s="9">
+        <v>0</v>
+      </c>
+      <c r="S97" s="9">
+        <v>0</v>
+      </c>
+      <c r="T97" s="9">
+        <v>0</v>
+      </c>
+      <c r="U97" s="9">
+        <v>0</v>
+      </c>
+      <c r="V97" s="7">
+        <v>0</v>
+      </c>
+      <c r="W97" s="9">
+        <v>0</v>
+      </c>
+      <c r="X97" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" customHeight="1" ht="90">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="7">
+        <v>228.54</v>
+      </c>
+      <c r="D98" s="7">
+        <v>878.62</v>
+      </c>
+      <c r="E98" s="7">
         <v>1.17</v>
       </c>
-      <c r="F97" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="G97" s="6">
-        <v>3.74</v>
-      </c>
-      <c r="H97" s="8">
-        <v>0.898</v>
-      </c>
-      <c r="I97" s="8">
-        <v>0.0036</v>
-      </c>
-      <c r="J97" s="8">
-        <v>0.0038</v>
-      </c>
-      <c r="K97" s="8">
+      <c r="F98" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G98" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.8824</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0.0035</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0.0061</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0.0004</v>
+      </c>
+      <c r="L98" s="7">
+        <v>4.48</v>
+      </c>
+      <c r="M98" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0</v>
+      </c>
+      <c r="O98" s="9">
+        <v>194888</v>
+      </c>
+      <c r="P98" s="9">
+        <v>679</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>1181</v>
+      </c>
+      <c r="R98" s="9">
+        <v>86</v>
+      </c>
+      <c r="S98" s="9">
+        <v>51</v>
+      </c>
+      <c r="T98" s="9">
+        <v>53</v>
+      </c>
+      <c r="U98" s="9">
+        <v>1</v>
+      </c>
+      <c r="V98" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="W98" s="9">
+        <v>805</v>
+      </c>
+      <c r="X98" s="8">
+        <v>0.0041</v>
+      </c>
+      <c r="Y98" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="Z98" s="9">
+        <v>62</v>
+      </c>
+      <c r="AA98" s="8">
         <v>0.0003</v>
       </c>
-      <c r="L97" s="7">
-        <v>4.67</v>
-      </c>
-      <c r="M97" s="6">
-        <v>2.63</v>
-      </c>
-      <c r="N97" s="8">
-        <v>0</v>
-      </c>
-      <c r="O97" s="9">
-        <v>195930</v>
-      </c>
-      <c r="P97" s="9">
-        <v>700</v>
-      </c>
-      <c r="Q97" s="9">
-        <v>744</v>
-      </c>
-      <c r="R97" s="9">
-        <v>49</v>
-      </c>
-      <c r="S97" s="9">
-        <v>49</v>
-      </c>
-      <c r="T97" s="9">
-        <v>51</v>
-      </c>
-      <c r="U97" s="9">
-        <v>1</v>
-      </c>
-      <c r="V97" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="W97" s="9">
-        <v>487</v>
-      </c>
-      <c r="X97" s="8">
-        <v>0.0025</v>
-      </c>
-      <c r="Y97" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="Z97" s="9">
-        <v>35</v>
-      </c>
-      <c r="AA97" s="8">
+      <c r="AB98" s="7">
+        <v>2.66</v>
+      </c>
+      <c r="AC98" s="7">
+        <v>3.69</v>
+      </c>
+      <c r="AD98" s="7">
+        <v>625.18</v>
+      </c>
+      <c r="AE98" s="7">
+        <v>782.95</v>
+      </c>
+      <c r="AF98" s="7">
+        <v>543.21</v>
+      </c>
+      <c r="AG98" s="6">
+        <v>3.43</v>
+      </c>
+      <c r="AH98" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="AI98" s="9">
+        <v>37</v>
+      </c>
+      <c r="AJ98" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="AK98" s="8">
         <v>0.0002</v>
       </c>
-      <c r="AB97" s="7">
-        <v>4.67</v>
-      </c>
-      <c r="AC97" s="7">
-        <v>6.54</v>
-      </c>
-      <c r="AD97" s="7">
-        <v>602.15</v>
-      </c>
-      <c r="AE97" s="7">
-        <v>765.97</v>
-      </c>
-      <c r="AF97" s="7">
-        <v>526.23</v>
-      </c>
-      <c r="AG97" s="6">
-        <v>3.35</v>
-      </c>
-      <c r="AH97" s="6">
-        <v>2.3</v>
-      </c>
-      <c r="AI97" s="9">
-        <v>35</v>
-      </c>
-      <c r="AJ97" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="AK97" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="AL97" s="7">
-        <v>6.54</v>
+      <c r="AL98" s="7">
+        <v>6.18</v>
       </c>
     </row>
   </sheetData>
